--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt1-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt1-Fzd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Wnt1</t>
+  </si>
+  <si>
+    <t>Fzd1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Wnt1</t>
-  </si>
-  <si>
-    <t>Fzd1</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.027123</v>
+        <v>0.3532066666666667</v>
       </c>
       <c r="H2">
-        <v>0.08136900000000001</v>
+        <v>1.05962</v>
       </c>
       <c r="I2">
-        <v>0.07131444737854617</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.07131444737854617</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.668351</v>
+        <v>0.8596446666666667</v>
       </c>
       <c r="N2">
-        <v>2.005053</v>
+        <v>2.578934</v>
       </c>
       <c r="O2">
-        <v>0.0415898174224163</v>
+        <v>0.05286426382906832</v>
       </c>
       <c r="P2">
-        <v>0.0415898174224163</v>
+        <v>0.05286426382906832</v>
       </c>
       <c r="Q2">
-        <v>0.018127684173</v>
+        <v>0.3036322272311111</v>
       </c>
       <c r="R2">
-        <v>0.163149157557</v>
+        <v>2.73269004508</v>
       </c>
       <c r="S2">
-        <v>0.00296595484605425</v>
+        <v>0.05286426382906832</v>
       </c>
       <c r="T2">
-        <v>0.00296595484605425</v>
+        <v>0.05286426382906832</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.027123</v>
+        <v>0.3532066666666667</v>
       </c>
       <c r="H3">
-        <v>0.08136900000000001</v>
+        <v>1.05962</v>
       </c>
       <c r="I3">
-        <v>0.07131444737854617</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.07131444737854617</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>31.307949</v>
       </c>
       <c r="O3">
-        <v>0.649405219104094</v>
+        <v>0.6417658132713033</v>
       </c>
       <c r="P3">
-        <v>0.649405219104094</v>
+        <v>0.6417658132713032</v>
       </c>
       <c r="Q3">
-        <v>0.2830551669090001</v>
+        <v>3.686058768819999</v>
       </c>
       <c r="R3">
-        <v>2.547496502181001</v>
+        <v>33.17452891937999</v>
       </c>
       <c r="S3">
-        <v>0.04631197432515215</v>
+        <v>0.6417658132713033</v>
       </c>
       <c r="T3">
-        <v>0.04631197432515215</v>
+        <v>0.6417658132713032</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.027123</v>
+        <v>0.3532066666666667</v>
       </c>
       <c r="H4">
-        <v>0.08136900000000001</v>
+        <v>1.05962</v>
       </c>
       <c r="I4">
-        <v>0.07131444737854617</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.07131444737854617</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,208 +682,22 @@
         <v>14.897188</v>
       </c>
       <c r="O4">
-        <v>0.3090049634734897</v>
+        <v>0.3053699228996285</v>
       </c>
       <c r="P4">
-        <v>0.3090049634734898</v>
+        <v>0.3053699228996284</v>
       </c>
       <c r="Q4">
-        <v>0.134685476708</v>
+        <v>1.753928705395555</v>
       </c>
       <c r="R4">
-        <v>1.212169290372</v>
+        <v>15.78535834856</v>
       </c>
       <c r="S4">
-        <v>0.02203651820733976</v>
+        <v>0.3053699228996285</v>
       </c>
       <c r="T4">
-        <v>0.02203651820733977</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.3532066666666667</v>
-      </c>
-      <c r="H5">
-        <v>1.05962</v>
-      </c>
-      <c r="I5">
-        <v>0.9286855526214538</v>
-      </c>
-      <c r="J5">
-        <v>0.9286855526214538</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.668351</v>
-      </c>
-      <c r="N5">
-        <v>2.005053</v>
-      </c>
-      <c r="O5">
-        <v>0.0415898174224163</v>
-      </c>
-      <c r="P5">
-        <v>0.0415898174224163</v>
-      </c>
-      <c r="Q5">
-        <v>0.2360660288733333</v>
-      </c>
-      <c r="R5">
-        <v>2.12459425986</v>
-      </c>
-      <c r="S5">
-        <v>0.03862386257636204</v>
-      </c>
-      <c r="T5">
-        <v>0.03862386257636205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.3532066666666667</v>
-      </c>
-      <c r="H6">
-        <v>1.05962</v>
-      </c>
-      <c r="I6">
-        <v>0.9286855526214538</v>
-      </c>
-      <c r="J6">
-        <v>0.9286855526214538</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>10.435983</v>
-      </c>
-      <c r="N6">
-        <v>31.307949</v>
-      </c>
-      <c r="O6">
-        <v>0.649405219104094</v>
-      </c>
-      <c r="P6">
-        <v>0.649405219104094</v>
-      </c>
-      <c r="Q6">
-        <v>3.68605876882</v>
-      </c>
-      <c r="R6">
-        <v>33.17452891938</v>
-      </c>
-      <c r="S6">
-        <v>0.6030932447789418</v>
-      </c>
-      <c r="T6">
-        <v>0.6030932447789418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.3532066666666667</v>
-      </c>
-      <c r="H7">
-        <v>1.05962</v>
-      </c>
-      <c r="I7">
-        <v>0.9286855526214538</v>
-      </c>
-      <c r="J7">
-        <v>0.9286855526214538</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>4.965729333333333</v>
-      </c>
-      <c r="N7">
-        <v>14.897188</v>
-      </c>
-      <c r="O7">
-        <v>0.3090049634734897</v>
-      </c>
-      <c r="P7">
-        <v>0.3090049634734898</v>
-      </c>
-      <c r="Q7">
-        <v>1.753928705395555</v>
-      </c>
-      <c r="R7">
-        <v>15.78535834856</v>
-      </c>
-      <c r="S7">
-        <v>0.28696844526615</v>
-      </c>
-      <c r="T7">
-        <v>0.28696844526615</v>
+        <v>0.3053699228996284</v>
       </c>
     </row>
   </sheetData>
